--- a/math_proficiency_elementary_schools_medium_district_size_only.xlsx
+++ b/math_proficiency_elementary_schools_medium_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q587"/>
+  <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># Math Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,11 @@
       <c r="Q2" t="n">
         <v>1</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,6 +659,11 @@
       <c r="Q3" t="n">
         <v>9</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,6 +729,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -779,6 +799,11 @@
       <c r="Q5" t="n">
         <v>1</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +869,11 @@
       <c r="Q6" t="n">
         <v>2</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,6 +939,11 @@
       <c r="Q7" t="n">
         <v>4</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -974,6 +1009,11 @@
       <c r="Q8" t="n">
         <v>2</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1039,6 +1079,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,6 +1149,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1169,6 +1219,11 @@
       <c r="Q11" t="n">
         <v>3</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1289,11 @@
       <c r="Q12" t="n">
         <v>3</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1299,6 +1359,11 @@
       <c r="Q13" t="n">
         <v>3</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1364,6 +1429,11 @@
       <c r="Q14" t="n">
         <v>8</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1429,6 +1499,11 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1569,11 @@
       <c r="Q16" t="n">
         <v>2</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,6 +1639,11 @@
       <c r="Q17" t="n">
         <v>8</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1624,6 +1709,11 @@
       <c r="Q18" t="n">
         <v>6</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1779,11 @@
       <c r="Q19" t="n">
         <v>2</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1754,6 +1849,11 @@
       <c r="Q20" t="n">
         <v>7</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1819,6 +1919,11 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1884,6 +1989,11 @@
       <c r="Q22" t="n">
         <v>2</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1949,6 +2059,11 @@
       <c r="Q23" t="n">
         <v>6</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2014,6 +2129,11 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2079,6 +2199,11 @@
       <c r="Q25" t="n">
         <v>3</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2269,11 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2209,6 +2339,11 @@
       <c r="Q27" t="n">
         <v>4</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2274,6 +2409,11 @@
       <c r="Q28" t="n">
         <v>4</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2339,6 +2479,11 @@
       <c r="Q29" t="n">
         <v>2</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2404,6 +2549,11 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2469,6 +2619,11 @@
       <c r="Q31" t="n">
         <v>8</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2534,6 +2689,11 @@
       <c r="Q32" t="n">
         <v>5</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2599,6 +2759,11 @@
       <c r="Q33" t="n">
         <v>24</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2664,6 +2829,11 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2729,6 +2899,11 @@
       <c r="Q35" t="n">
         <v>12</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2794,6 +2969,11 @@
       <c r="Q36" t="n">
         <v>10</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2859,6 +3039,11 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2924,6 +3109,11 @@
       <c r="Q38" t="n">
         <v>25</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2989,6 +3179,11 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3054,6 +3249,11 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3119,6 +3319,11 @@
       <c r="Q41" t="n">
         <v>1</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3184,6 +3389,11 @@
       <c r="Q42" t="n">
         <v>6</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3249,6 +3459,11 @@
       <c r="Q43" t="n">
         <v>2</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3314,6 +3529,11 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3379,6 +3599,11 @@
       <c r="Q45" t="n">
         <v>8</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3444,6 +3669,11 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3509,6 +3739,11 @@
       <c r="Q47" t="n">
         <v>2</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3574,6 +3809,11 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3639,6 +3879,11 @@
       <c r="Q49" t="n">
         <v>1</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3704,6 +3949,11 @@
       <c r="Q50" t="n">
         <v>6</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3769,6 +4019,11 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3834,6 +4089,11 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3899,6 +4159,11 @@
       <c r="Q53" t="n">
         <v>50</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3964,6 +4229,11 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4029,6 +4299,11 @@
       <c r="Q55" t="n">
         <v>20</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4094,6 +4369,11 @@
       <c r="Q56" t="n">
         <v>11</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4159,6 +4439,11 @@
       <c r="Q57" t="n">
         <v>28</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4224,6 +4509,11 @@
       <c r="Q58" t="n">
         <v>7</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4289,6 +4579,11 @@
       <c r="Q59" t="n">
         <v>27</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4354,6 +4649,11 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4419,6 +4719,11 @@
       <c r="Q61" t="n">
         <v>12</v>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4484,6 +4789,11 @@
       <c r="Q62" t="n">
         <v>46</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4549,6 +4859,11 @@
       <c r="Q63" t="n">
         <v>4</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4614,6 +4929,11 @@
       <c r="Q64" t="n">
         <v>7</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4679,6 +4999,11 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4744,6 +5069,11 @@
       <c r="Q66" t="n">
         <v>30</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4809,6 +5139,11 @@
       <c r="Q67" t="n">
         <v>7</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4874,6 +5209,11 @@
       <c r="Q68" t="n">
         <v>10</v>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4939,6 +5279,11 @@
       <c r="Q69" t="n">
         <v>1</v>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5004,6 +5349,11 @@
       <c r="Q70" t="n">
         <v>14</v>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5069,6 +5419,11 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5134,6 +5489,11 @@
       <c r="Q72" t="n">
         <v>16</v>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5199,6 +5559,11 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5264,6 +5629,11 @@
       <c r="Q74" t="n">
         <v>5</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5329,6 +5699,11 @@
       <c r="Q75" t="n">
         <v>6</v>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5394,6 +5769,11 @@
       <c r="Q76" t="n">
         <v>2</v>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5459,6 +5839,11 @@
       <c r="Q77" t="n">
         <v>4</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5524,6 +5909,11 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5589,6 +5979,11 @@
       <c r="Q79" t="n">
         <v>1</v>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5654,6 +6049,11 @@
       <c r="Q80" t="n">
         <v>6</v>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5719,6 +6119,11 @@
       <c r="Q81" t="n">
         <v>1</v>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5784,6 +6189,11 @@
       <c r="Q82" t="n">
         <v>3</v>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5849,6 +6259,11 @@
       <c r="Q83" t="n">
         <v>6</v>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5914,6 +6329,11 @@
       <c r="Q84" t="n">
         <v>10</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5979,6 +6399,11 @@
       <c r="Q85" t="n">
         <v>17</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6044,6 +6469,11 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6109,6 +6539,11 @@
       <c r="Q87" t="n">
         <v>10</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6174,6 +6609,11 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6239,6 +6679,11 @@
       <c r="Q89" t="n">
         <v>3</v>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6304,6 +6749,11 @@
       <c r="Q90" t="n">
         <v>14</v>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6369,6 +6819,11 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6434,6 +6889,11 @@
       <c r="Q92" t="n">
         <v>4</v>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6499,6 +6959,11 @@
       <c r="Q93" t="n">
         <v>6</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6564,6 +7029,11 @@
       <c r="Q94" t="n">
         <v>14</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6629,6 +7099,11 @@
       <c r="Q95" t="n">
         <v>11</v>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6694,6 +7169,11 @@
       <c r="Q96" t="n">
         <v>8</v>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6759,6 +7239,11 @@
       <c r="Q97" t="n">
         <v>19</v>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6824,6 +7309,11 @@
       <c r="Q98" t="n">
         <v>8</v>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6889,6 +7379,11 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6954,6 +7449,11 @@
       <c r="Q100" t="n">
         <v>3</v>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7019,6 +7519,11 @@
       <c r="Q101" t="n">
         <v>6</v>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7084,6 +7589,11 @@
       <c r="Q102" t="n">
         <v>2</v>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7149,6 +7659,11 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7214,6 +7729,11 @@
       <c r="Q104" t="n">
         <v>9</v>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7279,6 +7799,11 @@
       <c r="Q105" t="n">
         <v>19</v>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7344,6 +7869,11 @@
       <c r="Q106" t="n">
         <v>16</v>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7409,6 +7939,11 @@
       <c r="Q107" t="n">
         <v>10</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7474,6 +8009,11 @@
       <c r="Q108" t="n">
         <v>8</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7539,6 +8079,11 @@
       <c r="Q109" t="n">
         <v>2</v>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7604,6 +8149,11 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7669,6 +8219,11 @@
       <c r="Q111" t="n">
         <v>2</v>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7734,6 +8289,11 @@
       <c r="Q112" t="n">
         <v>5</v>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7799,6 +8359,11 @@
       <c r="Q113" t="n">
         <v>1</v>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7864,6 +8429,11 @@
       <c r="Q114" t="n">
         <v>4</v>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7929,6 +8499,11 @@
       <c r="Q115" t="n">
         <v>5</v>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7994,6 +8569,11 @@
       <c r="Q116" t="n">
         <v>3</v>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8059,6 +8639,11 @@
       <c r="Q117" t="n">
         <v>3</v>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8124,6 +8709,11 @@
       <c r="Q118" t="n">
         <v>2</v>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8189,6 +8779,11 @@
       <c r="Q119" t="n">
         <v>1</v>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8254,6 +8849,11 @@
       <c r="Q120" t="n">
         <v>4</v>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8319,6 +8919,11 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8384,6 +8989,11 @@
       <c r="Q122" t="n">
         <v>1</v>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8449,6 +9059,11 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8514,6 +9129,11 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8579,6 +9199,11 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8644,6 +9269,11 @@
       <c r="Q126" t="n">
         <v>5</v>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8709,6 +9339,11 @@
       <c r="Q127" t="n">
         <v>6</v>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8774,6 +9409,11 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8839,6 +9479,11 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8904,6 +9549,11 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8969,6 +9619,11 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9034,6 +9689,11 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9099,6 +9759,11 @@
       <c r="Q133" t="n">
         <v>2</v>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9164,6 +9829,11 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9229,6 +9899,11 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9294,6 +9969,11 @@
       <c r="Q136" t="n">
         <v>3</v>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9359,6 +10039,11 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9424,6 +10109,11 @@
       <c r="Q138" t="n">
         <v>1</v>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9489,6 +10179,11 @@
       <c r="Q139" t="n">
         <v>2</v>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9554,6 +10249,11 @@
       <c r="Q140" t="n">
         <v>4</v>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9619,6 +10319,11 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9684,6 +10389,11 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9749,6 +10459,11 @@
       <c r="Q143" t="n">
         <v>1</v>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9814,6 +10529,11 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9879,6 +10599,11 @@
       <c r="Q145" t="n">
         <v>2</v>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9944,6 +10669,11 @@
       <c r="Q146" t="n">
         <v>3</v>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10009,6 +10739,11 @@
       <c r="Q147" t="n">
         <v>1</v>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10074,6 +10809,11 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10139,6 +10879,11 @@
       <c r="Q149" t="n">
         <v>3</v>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10204,6 +10949,11 @@
       <c r="Q150" t="n">
         <v>3</v>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10269,6 +11019,11 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10334,6 +11089,11 @@
       <c r="Q152" t="n">
         <v>1</v>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10399,6 +11159,11 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10464,6 +11229,11 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10529,6 +11299,11 @@
       <c r="Q155" t="n">
         <v>1</v>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10594,6 +11369,11 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10659,6 +11439,11 @@
       <c r="Q157" t="n">
         <v>3</v>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10724,6 +11509,11 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10789,6 +11579,11 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10854,6 +11649,11 @@
       <c r="Q160" t="n">
         <v>1</v>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10919,6 +11719,11 @@
       <c r="Q161" t="n">
         <v>2</v>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10984,6 +11789,11 @@
       <c r="Q162" t="n">
         <v>2</v>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11049,6 +11859,11 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11114,6 +11929,11 @@
       <c r="Q164" t="n">
         <v>5</v>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11179,6 +11999,11 @@
       <c r="Q165" t="n">
         <v>7</v>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11244,6 +12069,11 @@
       <c r="Q166" t="n">
         <v>4</v>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11309,6 +12139,11 @@
       <c r="Q167" t="n">
         <v>2</v>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11374,6 +12209,11 @@
       <c r="Q168" t="n">
         <v>3</v>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11439,6 +12279,11 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11504,6 +12349,11 @@
       <c r="Q170" t="n">
         <v>3</v>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11569,6 +12419,11 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11634,6 +12489,11 @@
       <c r="Q172" t="n">
         <v>7</v>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11699,6 +12559,11 @@
       <c r="Q173" t="n">
         <v>4</v>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11764,6 +12629,11 @@
       <c r="Q174" t="n">
         <v>1</v>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11829,6 +12699,11 @@
       <c r="Q175" t="n">
         <v>5</v>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11894,6 +12769,11 @@
       <c r="Q176" t="n">
         <v>5</v>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11959,6 +12839,11 @@
       <c r="Q177" t="n">
         <v>1</v>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12024,6 +12909,11 @@
       <c r="Q178" t="n">
         <v>2</v>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12089,6 +12979,11 @@
       <c r="Q179" t="n">
         <v>1</v>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12154,6 +13049,11 @@
       <c r="Q180" t="n">
         <v>2</v>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12219,6 +13119,11 @@
       <c r="Q181" t="n">
         <v>5</v>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12284,6 +13189,11 @@
       <c r="Q182" t="n">
         <v>5</v>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12349,6 +13259,11 @@
       <c r="Q183" t="n">
         <v>3</v>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12414,6 +13329,11 @@
       <c r="Q184" t="n">
         <v>18</v>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12479,6 +13399,11 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12544,6 +13469,11 @@
       <c r="Q186" t="n">
         <v>4</v>
       </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12609,6 +13539,11 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12674,6 +13609,11 @@
       <c r="Q188" t="n">
         <v>2</v>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12739,6 +13679,11 @@
       <c r="Q189" t="n">
         <v>2</v>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12804,6 +13749,11 @@
       <c r="Q190" t="n">
         <v>1</v>
       </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12869,6 +13819,11 @@
       <c r="Q191" t="n">
         <v>10</v>
       </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12934,6 +13889,11 @@
       <c r="Q192" t="n">
         <v>3</v>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12999,6 +13959,11 @@
       <c r="Q193" t="n">
         <v>2</v>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13064,6 +14029,11 @@
       <c r="Q194" t="n">
         <v>3</v>
       </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13129,6 +14099,11 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13194,6 +14169,11 @@
       <c r="Q196" t="n">
         <v>5</v>
       </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13259,6 +14239,11 @@
       <c r="Q197" t="n">
         <v>3</v>
       </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13324,6 +14309,11 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13389,6 +14379,11 @@
       <c r="Q199" t="n">
         <v>1</v>
       </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13454,6 +14449,11 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13519,6 +14519,11 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13584,6 +14589,11 @@
       <c r="Q202" t="n">
         <v>1</v>
       </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13649,6 +14659,11 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13714,6 +14729,11 @@
       <c r="Q204" t="n">
         <v>1</v>
       </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13779,6 +14799,11 @@
       <c r="Q205" t="n">
         <v>14</v>
       </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13844,6 +14869,11 @@
       <c r="Q206" t="n">
         <v>5</v>
       </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13909,6 +14939,11 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13974,6 +15009,11 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14039,6 +15079,11 @@
       <c r="Q209" t="n">
         <v>5</v>
       </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14104,6 +15149,11 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14169,6 +15219,11 @@
       <c r="Q211" t="n">
         <v>2</v>
       </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14234,6 +15289,11 @@
       <c r="Q212" t="n">
         <v>2</v>
       </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14299,6 +15359,11 @@
       <c r="Q213" t="n">
         <v>4</v>
       </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14364,6 +15429,11 @@
       <c r="Q214" t="n">
         <v>2</v>
       </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14429,6 +15499,11 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14494,6 +15569,11 @@
       <c r="Q216" t="n">
         <v>3</v>
       </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14559,6 +15639,11 @@
       <c r="Q217" t="n">
         <v>7</v>
       </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14624,6 +15709,11 @@
       <c r="Q218" t="n">
         <v>1</v>
       </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14689,6 +15779,11 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14754,6 +15849,11 @@
       <c r="Q220" t="n">
         <v>13</v>
       </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14819,6 +15919,11 @@
       <c r="Q221" t="n">
         <v>2</v>
       </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14884,6 +15989,11 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14949,6 +16059,11 @@
       <c r="Q223" t="n">
         <v>4</v>
       </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15014,6 +16129,11 @@
       <c r="Q224" t="n">
         <v>2</v>
       </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15079,6 +16199,11 @@
       <c r="Q225" t="n">
         <v>5</v>
       </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -15144,6 +16269,11 @@
       <c r="Q226" t="n">
         <v>9</v>
       </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15209,6 +16339,11 @@
       <c r="Q227" t="n">
         <v>10</v>
       </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15274,6 +16409,11 @@
       <c r="Q228" t="n">
         <v>6</v>
       </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15339,6 +16479,11 @@
       <c r="Q229" t="n">
         <v>3</v>
       </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15404,6 +16549,11 @@
       <c r="Q230" t="n">
         <v>3</v>
       </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15469,6 +16619,11 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15534,6 +16689,11 @@
       <c r="Q232" t="n">
         <v>1</v>
       </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15599,6 +16759,11 @@
       <c r="Q233" t="n">
         <v>6</v>
       </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15664,6 +16829,11 @@
       <c r="Q234" t="n">
         <v>12</v>
       </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15729,6 +16899,11 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15794,6 +16969,11 @@
       <c r="Q236" t="n">
         <v>9</v>
       </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15859,6 +17039,11 @@
       <c r="Q237" t="n">
         <v>2</v>
       </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -15924,6 +17109,11 @@
       <c r="Q238" t="n">
         <v>2</v>
       </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15989,6 +17179,11 @@
       <c r="Q239" t="n">
         <v>2</v>
       </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16054,6 +17249,11 @@
       <c r="Q240" t="n">
         <v>2</v>
       </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16119,6 +17319,11 @@
       <c r="Q241" t="n">
         <v>2</v>
       </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16184,6 +17389,11 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16249,6 +17459,11 @@
       <c r="Q243" t="n">
         <v>4</v>
       </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16314,6 +17529,11 @@
       <c r="Q244" t="n">
         <v>3</v>
       </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16379,6 +17599,11 @@
       <c r="Q245" t="n">
         <v>6</v>
       </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16444,6 +17669,11 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16509,6 +17739,11 @@
       <c r="Q247" t="n">
         <v>8</v>
       </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16574,6 +17809,11 @@
       <c r="Q248" t="n">
         <v>2</v>
       </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16639,6 +17879,11 @@
       <c r="Q249" t="n">
         <v>4</v>
       </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16704,6 +17949,11 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -16769,6 +18019,11 @@
       <c r="Q251" t="n">
         <v>3</v>
       </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -16834,6 +18089,11 @@
       <c r="Q252" t="n">
         <v>5</v>
       </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -16899,6 +18159,11 @@
       <c r="Q253" t="n">
         <v>2</v>
       </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -16964,6 +18229,11 @@
       <c r="Q254" t="n">
         <v>9</v>
       </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17029,6 +18299,11 @@
       <c r="Q255" t="n">
         <v>5</v>
       </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17094,6 +18369,11 @@
       <c r="Q256" t="n">
         <v>9</v>
       </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17159,6 +18439,11 @@
       <c r="Q257" t="n">
         <v>2</v>
       </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17224,6 +18509,11 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -17289,6 +18579,11 @@
       <c r="Q259" t="n">
         <v>6</v>
       </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17354,6 +18649,11 @@
       <c r="Q260" t="n">
         <v>9</v>
       </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17419,6 +18719,11 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -17484,6 +18789,11 @@
       <c r="Q262" t="n">
         <v>3</v>
       </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17549,6 +18859,11 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17614,6 +18929,11 @@
       <c r="Q264" t="n">
         <v>12</v>
       </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -17679,6 +18999,11 @@
       <c r="Q265" t="n">
         <v>4</v>
       </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -17744,6 +19069,11 @@
       <c r="Q266" t="n">
         <v>13</v>
       </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -17809,6 +19139,11 @@
       <c r="Q267" t="n">
         <v>4</v>
       </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -17874,6 +19209,11 @@
       <c r="Q268" t="n">
         <v>1</v>
       </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -17939,6 +19279,11 @@
       <c r="Q269" t="n">
         <v>2</v>
       </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18004,6 +19349,11 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18069,6 +19419,11 @@
       <c r="Q271" t="n">
         <v>8</v>
       </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18134,6 +19489,11 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -18199,6 +19559,11 @@
       <c r="Q273" t="n">
         <v>2</v>
       </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -18264,6 +19629,11 @@
       <c r="Q274" t="n">
         <v>9</v>
       </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -18329,6 +19699,11 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -18394,6 +19769,11 @@
       <c r="Q276" t="n">
         <v>11</v>
       </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -18459,6 +19839,11 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -18524,6 +19909,11 @@
       <c r="Q278" t="n">
         <v>13</v>
       </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -18589,6 +19979,11 @@
       <c r="Q279" t="n">
         <v>9</v>
       </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -18654,6 +20049,11 @@
       <c r="Q280" t="n">
         <v>4</v>
       </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -18719,6 +20119,11 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -18784,6 +20189,11 @@
       <c r="Q282" t="n">
         <v>15</v>
       </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -18849,6 +20259,11 @@
       <c r="Q283" t="n">
         <v>1</v>
       </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -18914,6 +20329,11 @@
       <c r="Q284" t="n">
         <v>14</v>
       </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -18979,6 +20399,11 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19044,6 +20469,11 @@
       <c r="Q286" t="n">
         <v>19</v>
       </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19109,6 +20539,11 @@
       <c r="Q287" t="n">
         <v>3</v>
       </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -19174,6 +20609,11 @@
       <c r="Q288" t="n">
         <v>2</v>
       </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -19239,6 +20679,11 @@
       <c r="Q289" t="n">
         <v>3</v>
       </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -19304,6 +20749,11 @@
       <c r="Q290" t="n">
         <v>5</v>
       </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -19369,6 +20819,11 @@
       <c r="Q291" t="n">
         <v>5</v>
       </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -19434,6 +20889,11 @@
       <c r="Q292" t="n">
         <v>1</v>
       </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -19499,6 +20959,11 @@
       <c r="Q293" t="n">
         <v>1</v>
       </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -19564,6 +21029,11 @@
       <c r="Q294" t="n">
         <v>3</v>
       </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -19629,6 +21099,11 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -19694,6 +21169,11 @@
       <c r="Q296" t="n">
         <v>8</v>
       </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -19759,6 +21239,11 @@
       <c r="Q297" t="n">
         <v>10</v>
       </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -19824,6 +21309,11 @@
       <c r="Q298" t="n">
         <v>4</v>
       </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -19889,6 +21379,11 @@
       <c r="Q299" t="n">
         <v>4</v>
       </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -19954,6 +21449,11 @@
       <c r="Q300" t="n">
         <v>3</v>
       </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20019,6 +21519,11 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -20084,6 +21589,11 @@
       <c r="Q302" t="n">
         <v>9</v>
       </c>
+      <c r="R302" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -20149,6 +21659,11 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
+      <c r="R303" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -20214,6 +21729,11 @@
       <c r="Q304" t="n">
         <v>12</v>
       </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -20279,6 +21799,11 @@
       <c r="Q305" t="n">
         <v>9</v>
       </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -20344,6 +21869,11 @@
       <c r="Q306" t="n">
         <v>3</v>
       </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -20409,6 +21939,11 @@
       <c r="Q307" t="n">
         <v>2</v>
       </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -20474,6 +22009,11 @@
       <c r="Q308" t="n">
         <v>5</v>
       </c>
+      <c r="R308" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -20539,6 +22079,11 @@
       <c r="Q309" t="n">
         <v>3</v>
       </c>
+      <c r="R309" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -20604,6 +22149,11 @@
       <c r="Q310" t="n">
         <v>3</v>
       </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -20669,6 +22219,11 @@
       <c r="Q311" t="n">
         <v>3</v>
       </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -20734,6 +22289,11 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -20799,6 +22359,11 @@
       <c r="Q313" t="n">
         <v>7</v>
       </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -20864,6 +22429,11 @@
       <c r="Q314" t="n">
         <v>1</v>
       </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -20929,6 +22499,11 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -20994,6 +22569,11 @@
       <c r="Q316" t="n">
         <v>7</v>
       </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21059,6 +22639,11 @@
       <c r="Q317" t="n">
         <v>21</v>
       </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -21124,6 +22709,11 @@
       <c r="Q318" t="n">
         <v>5</v>
       </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -21189,6 +22779,11 @@
       <c r="Q319" t="n">
         <v>1</v>
       </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -21254,6 +22849,11 @@
       <c r="Q320" t="n">
         <v>1</v>
       </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -21319,6 +22919,11 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -21384,6 +22989,11 @@
       <c r="Q322" t="n">
         <v>1</v>
       </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -21449,6 +23059,11 @@
       <c r="Q323" t="n">
         <v>3</v>
       </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -21514,6 +23129,11 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -21579,6 +23199,11 @@
       <c r="Q325" t="n">
         <v>2</v>
       </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -21644,6 +23269,11 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -21709,6 +23339,11 @@
       <c r="Q327" t="n">
         <v>6</v>
       </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -21774,6 +23409,11 @@
       <c r="Q328" t="n">
         <v>11</v>
       </c>
+      <c r="R328" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -21839,6 +23479,11 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -21904,6 +23549,11 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -21969,6 +23619,11 @@
       <c r="Q331" t="n">
         <v>1</v>
       </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -22034,6 +23689,11 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -22099,6 +23759,11 @@
       <c r="Q333" t="n">
         <v>8</v>
       </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -22164,6 +23829,11 @@
       <c r="Q334" t="n">
         <v>4</v>
       </c>
+      <c r="R334" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -22229,6 +23899,11 @@
       <c r="Q335" t="n">
         <v>7</v>
       </c>
+      <c r="R335" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -22294,6 +23969,11 @@
       <c r="Q336" t="n">
         <v>3</v>
       </c>
+      <c r="R336" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -22359,6 +24039,11 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -22424,6 +24109,11 @@
       <c r="Q338" t="n">
         <v>3</v>
       </c>
+      <c r="R338" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -22489,6 +24179,11 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -22554,6 +24249,11 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -22619,6 +24319,11 @@
       <c r="Q341" t="n">
         <v>3</v>
       </c>
+      <c r="R341" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -22684,6 +24389,11 @@
       <c r="Q342" t="n">
         <v>5</v>
       </c>
+      <c r="R342" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -22749,6 +24459,11 @@
       <c r="Q343" t="n">
         <v>1</v>
       </c>
+      <c r="R343" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -22814,6 +24529,11 @@
       <c r="Q344" t="n">
         <v>3</v>
       </c>
+      <c r="R344" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -22879,6 +24599,11 @@
       <c r="Q345" t="n">
         <v>3</v>
       </c>
+      <c r="R345" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -22944,6 +24669,11 @@
       <c r="Q346" t="n">
         <v>3</v>
       </c>
+      <c r="R346" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -23009,6 +24739,11 @@
       <c r="Q347" t="n">
         <v>2</v>
       </c>
+      <c r="R347" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -23074,6 +24809,11 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -23139,6 +24879,11 @@
       <c r="Q349" t="n">
         <v>2</v>
       </c>
+      <c r="R349" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -23204,6 +24949,11 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -23269,6 +25019,11 @@
       <c r="Q351" t="n">
         <v>13</v>
       </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -23334,6 +25089,11 @@
       <c r="Q352" t="n">
         <v>9</v>
       </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -23399,6 +25159,11 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -23464,6 +25229,11 @@
       <c r="Q354" t="n">
         <v>7</v>
       </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -23529,6 +25299,11 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -23594,6 +25369,11 @@
       <c r="Q356" t="n">
         <v>2</v>
       </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -23659,6 +25439,11 @@
       <c r="Q357" t="n">
         <v>2</v>
       </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -23724,6 +25509,11 @@
       <c r="Q358" t="n">
         <v>1</v>
       </c>
+      <c r="R358" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -23789,6 +25579,11 @@
       <c r="Q359" t="n">
         <v>12</v>
       </c>
+      <c r="R359" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -23854,6 +25649,11 @@
       <c r="Q360" t="n">
         <v>5</v>
       </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -23919,6 +25719,11 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -23984,6 +25789,11 @@
       <c r="Q362" t="n">
         <v>1</v>
       </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -24049,6 +25859,11 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -24114,6 +25929,11 @@
       <c r="Q364" t="n">
         <v>5</v>
       </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -24179,6 +25999,11 @@
       <c r="Q365" t="n">
         <v>1</v>
       </c>
+      <c r="R365" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -24244,6 +26069,11 @@
       <c r="Q366" t="n">
         <v>5</v>
       </c>
+      <c r="R366" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -24309,6 +26139,11 @@
       <c r="Q367" t="n">
         <v>2</v>
       </c>
+      <c r="R367" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -24374,6 +26209,11 @@
       <c r="Q368" t="n">
         <v>7</v>
       </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -24439,6 +26279,11 @@
       <c r="Q369" t="n">
         <v>6</v>
       </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -24504,6 +26349,11 @@
       <c r="Q370" t="n">
         <v>5</v>
       </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -24569,6 +26419,11 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -24634,6 +26489,11 @@
       <c r="Q372" t="n">
         <v>6</v>
       </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -24699,6 +26559,11 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -24764,6 +26629,11 @@
       <c r="Q374" t="n">
         <v>2</v>
       </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -24829,6 +26699,11 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -24894,6 +26769,11 @@
       <c r="Q376" t="n">
         <v>3</v>
       </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -24959,6 +26839,11 @@
       <c r="Q377" t="n">
         <v>7</v>
       </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -25024,6 +26909,11 @@
       <c r="Q378" t="n">
         <v>4</v>
       </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -25089,6 +26979,11 @@
       <c r="Q379" t="n">
         <v>3</v>
       </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -25154,6 +27049,11 @@
       <c r="Q380" t="n">
         <v>27</v>
       </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -25219,6 +27119,11 @@
       <c r="Q381" t="n">
         <v>24</v>
       </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -25284,6 +27189,11 @@
       <c r="Q382" t="n">
         <v>7</v>
       </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -25349,6 +27259,11 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -25414,6 +27329,11 @@
       <c r="Q384" t="n">
         <v>10</v>
       </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -25479,6 +27399,11 @@
       <c r="Q385" t="n">
         <v>11</v>
       </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -25544,6 +27469,11 @@
       <c r="Q386" t="n">
         <v>11</v>
       </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -25609,6 +27539,11 @@
       <c r="Q387" t="n">
         <v>7</v>
       </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -25674,6 +27609,11 @@
       <c r="Q388" t="n">
         <v>24</v>
       </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -25739,6 +27679,11 @@
       <c r="Q389" t="n">
         <v>29</v>
       </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -25804,6 +27749,11 @@
       <c r="Q390" t="n">
         <v>6</v>
       </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -25869,6 +27819,11 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -25934,6 +27889,11 @@
       <c r="Q392" t="n">
         <v>6</v>
       </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -25999,6 +27959,11 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -26064,6 +28029,11 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -26129,6 +28099,11 @@
       <c r="Q395" t="n">
         <v>56</v>
       </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -26194,6 +28169,11 @@
       <c r="Q396" t="n">
         <v>4</v>
       </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -26259,6 +28239,11 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -26324,6 +28309,11 @@
       <c r="Q398" t="n">
         <v>2</v>
       </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -26389,6 +28379,11 @@
       <c r="Q399" t="n">
         <v>6</v>
       </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -26454,6 +28449,11 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -26519,6 +28519,11 @@
       <c r="Q401" t="n">
         <v>1</v>
       </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -26584,6 +28589,11 @@
       <c r="Q402" t="n">
         <v>9</v>
       </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -26649,6 +28659,11 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -26714,6 +28729,11 @@
       <c r="Q404" t="n">
         <v>3</v>
       </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -26779,6 +28799,11 @@
       <c r="Q405" t="n">
         <v>2</v>
       </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -26844,6 +28869,11 @@
       <c r="Q406" t="n">
         <v>5</v>
       </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -26909,6 +28939,11 @@
       <c r="Q407" t="n">
         <v>2</v>
       </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -26974,6 +29009,11 @@
       <c r="Q408" t="n">
         <v>1</v>
       </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -27039,6 +29079,11 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -27104,6 +29149,11 @@
       <c r="Q410" t="n">
         <v>1</v>
       </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -27169,6 +29219,11 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -27234,6 +29289,11 @@
       <c r="Q412" t="n">
         <v>5</v>
       </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -27299,6 +29359,11 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -27364,6 +29429,11 @@
       <c r="Q414" t="n">
         <v>5</v>
       </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -27429,6 +29499,11 @@
       <c r="Q415" t="n">
         <v>9</v>
       </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -27494,6 +29569,11 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -27559,6 +29639,11 @@
       <c r="Q417" t="n">
         <v>2</v>
       </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -27624,6 +29709,11 @@
       <c r="Q418" t="n">
         <v>5</v>
       </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -27689,6 +29779,11 @@
       <c r="Q419" t="n">
         <v>2</v>
       </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -27754,6 +29849,11 @@
       <c r="Q420" t="n">
         <v>5</v>
       </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -27819,6 +29919,11 @@
       <c r="Q421" t="n">
         <v>4</v>
       </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -27884,6 +29989,11 @@
       <c r="Q422" t="n">
         <v>1</v>
       </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -27949,6 +30059,11 @@
       <c r="Q423" t="n">
         <v>1</v>
       </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -28014,6 +30129,11 @@
       <c r="Q424" t="n">
         <v>4</v>
       </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -28079,6 +30199,11 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -28144,6 +30269,11 @@
       <c r="Q426" t="n">
         <v>22</v>
       </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -28209,6 +30339,11 @@
       <c r="Q427" t="n">
         <v>14</v>
       </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -28274,6 +30409,11 @@
       <c r="Q428" t="n">
         <v>8</v>
       </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -28339,6 +30479,11 @@
       <c r="Q429" t="n">
         <v>2</v>
       </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -28404,6 +30549,11 @@
       <c r="Q430" t="n">
         <v>1</v>
       </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -28469,6 +30619,11 @@
       <c r="Q431" t="n">
         <v>5</v>
       </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -28534,6 +30689,11 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -28599,6 +30759,11 @@
       <c r="Q433" t="n">
         <v>3</v>
       </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -28664,6 +30829,11 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -28729,6 +30899,11 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -28794,6 +30969,11 @@
       <c r="Q436" t="n">
         <v>4</v>
       </c>
+      <c r="R436" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -28859,6 +31039,11 @@
       <c r="Q437" t="n">
         <v>2</v>
       </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -28924,6 +31109,11 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -28989,6 +31179,11 @@
       <c r="Q439" t="n">
         <v>10</v>
       </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -29054,6 +31249,11 @@
       <c r="Q440" t="n">
         <v>6</v>
       </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -29119,6 +31319,11 @@
       <c r="Q441" t="n">
         <v>4</v>
       </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -29184,6 +31389,11 @@
       <c r="Q442" t="n">
         <v>6</v>
       </c>
+      <c r="R442" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -29249,6 +31459,11 @@
       <c r="Q443" t="n">
         <v>6</v>
       </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -29314,6 +31529,11 @@
       <c r="Q444" t="n">
         <v>9</v>
       </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -29379,6 +31599,11 @@
       <c r="Q445" t="n">
         <v>6</v>
       </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -29444,6 +31669,11 @@
       <c r="Q446" t="n">
         <v>6</v>
       </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -29509,6 +31739,11 @@
       <c r="Q447" t="n">
         <v>16</v>
       </c>
+      <c r="R447" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -29574,6 +31809,11 @@
       <c r="Q448" t="n">
         <v>2</v>
       </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -29639,6 +31879,11 @@
       <c r="Q449" t="n">
         <v>2</v>
       </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -29704,6 +31949,11 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -29769,6 +32019,11 @@
       <c r="Q451" t="n">
         <v>5</v>
       </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -29834,6 +32089,11 @@
       <c r="Q452" t="n">
         <v>1</v>
       </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -29899,6 +32159,11 @@
       <c r="Q453" t="n">
         <v>9</v>
       </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -29964,6 +32229,11 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -30029,6 +32299,11 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -30094,6 +32369,11 @@
       <c r="Q456" t="n">
         <v>2</v>
       </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -30159,6 +32439,11 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -30224,6 +32509,11 @@
       <c r="Q458" t="n">
         <v>6</v>
       </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -30289,6 +32579,11 @@
       <c r="Q459" t="n">
         <v>9</v>
       </c>
+      <c r="R459" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -30354,6 +32649,11 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -30419,6 +32719,11 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -30484,6 +32789,11 @@
       <c r="Q462" t="n">
         <v>6</v>
       </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -30549,6 +32859,11 @@
       <c r="Q463" t="n">
         <v>5</v>
       </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -30614,6 +32929,11 @@
       <c r="Q464" t="n">
         <v>2</v>
       </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -30679,6 +32999,11 @@
       <c r="Q465" t="n">
         <v>4</v>
       </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -30744,6 +33069,11 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -30809,6 +33139,11 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -30874,6 +33209,11 @@
       <c r="Q468" t="n">
         <v>9</v>
       </c>
+      <c r="R468" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -30939,6 +33279,11 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -31004,6 +33349,11 @@
       <c r="Q470" t="n">
         <v>2</v>
       </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -31069,6 +33419,11 @@
       <c r="Q471" t="n">
         <v>3</v>
       </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -31134,6 +33489,11 @@
       <c r="Q472" t="n">
         <v>0</v>
       </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -31199,6 +33559,11 @@
       <c r="Q473" t="n">
         <v>1</v>
       </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -31264,6 +33629,11 @@
       <c r="Q474" t="n">
         <v>1</v>
       </c>
+      <c r="R474" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -31329,6 +33699,11 @@
       <c r="Q475" t="n">
         <v>2</v>
       </c>
+      <c r="R475" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -31394,6 +33769,11 @@
       <c r="Q476" t="n">
         <v>3</v>
       </c>
+      <c r="R476" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -31459,6 +33839,11 @@
       <c r="Q477" t="n">
         <v>6</v>
       </c>
+      <c r="R477" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -31524,6 +33909,11 @@
       <c r="Q478" t="n">
         <v>4</v>
       </c>
+      <c r="R478" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -31589,6 +33979,11 @@
       <c r="Q479" t="n">
         <v>9</v>
       </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -31654,6 +34049,11 @@
       <c r="Q480" t="n">
         <v>7</v>
       </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -31719,6 +34119,11 @@
       <c r="Q481" t="n">
         <v>4</v>
       </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -31784,6 +34189,11 @@
       <c r="Q482" t="n">
         <v>2</v>
       </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -31849,6 +34259,11 @@
       <c r="Q483" t="n">
         <v>2</v>
       </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -31914,6 +34329,11 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -31979,6 +34399,11 @@
       <c r="Q485" t="n">
         <v>1</v>
       </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -32044,6 +34469,11 @@
       <c r="Q486" t="n">
         <v>0</v>
       </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -32109,6 +34539,11 @@
       <c r="Q487" t="n">
         <v>1</v>
       </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -32174,6 +34609,11 @@
       <c r="Q488" t="n">
         <v>1</v>
       </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -32239,6 +34679,11 @@
       <c r="Q489" t="n">
         <v>2</v>
       </c>
+      <c r="R489" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -32304,6 +34749,11 @@
       <c r="Q490" t="n">
         <v>1</v>
       </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -32369,6 +34819,11 @@
       <c r="Q491" t="n">
         <v>1</v>
       </c>
+      <c r="R491" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -32434,6 +34889,11 @@
       <c r="Q492" t="n">
         <v>0</v>
       </c>
+      <c r="R492" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -32499,6 +34959,11 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -32564,6 +35029,11 @@
       <c r="Q494" t="n">
         <v>4</v>
       </c>
+      <c r="R494" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -32629,6 +35099,11 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -32694,6 +35169,11 @@
       <c r="Q496" t="n">
         <v>2</v>
       </c>
+      <c r="R496" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -32759,6 +35239,11 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -32824,6 +35309,11 @@
       <c r="Q498" t="n">
         <v>23</v>
       </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -32889,6 +35379,11 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -32954,6 +35449,11 @@
       <c r="Q500" t="n">
         <v>3</v>
       </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -33019,6 +35519,11 @@
       <c r="Q501" t="n">
         <v>3</v>
       </c>
+      <c r="R501" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -33084,6 +35589,11 @@
       <c r="Q502" t="n">
         <v>1</v>
       </c>
+      <c r="R502" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -33149,6 +35659,11 @@
       <c r="Q503" t="n">
         <v>3</v>
       </c>
+      <c r="R503" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -33214,6 +35729,11 @@
       <c r="Q504" t="n">
         <v>5</v>
       </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -33279,6 +35799,11 @@
       <c r="Q505" t="n">
         <v>2</v>
       </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -33344,6 +35869,11 @@
       <c r="Q506" t="n">
         <v>5</v>
       </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -33409,6 +35939,11 @@
       <c r="Q507" t="n">
         <v>17</v>
       </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -33474,6 +36009,11 @@
       <c r="Q508" t="n">
         <v>33</v>
       </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -33539,6 +36079,11 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -33604,6 +36149,11 @@
       <c r="Q510" t="n">
         <v>0</v>
       </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -33669,6 +36219,11 @@
       <c r="Q511" t="n">
         <v>1</v>
       </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -33734,6 +36289,11 @@
       <c r="Q512" t="n">
         <v>6</v>
       </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -33799,6 +36359,11 @@
       <c r="Q513" t="n">
         <v>1</v>
       </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -33864,6 +36429,11 @@
       <c r="Q514" t="n">
         <v>0</v>
       </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -33929,6 +36499,11 @@
       <c r="Q515" t="n">
         <v>4</v>
       </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -33994,6 +36569,11 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -34059,6 +36639,11 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -34124,6 +36709,11 @@
       <c r="Q518" t="n">
         <v>5</v>
       </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -34189,6 +36779,11 @@
       <c r="Q519" t="n">
         <v>4</v>
       </c>
+      <c r="R519" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -34254,6 +36849,11 @@
       <c r="Q520" t="n">
         <v>0</v>
       </c>
+      <c r="R520" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -34319,6 +36919,11 @@
       <c r="Q521" t="n">
         <v>3</v>
       </c>
+      <c r="R521" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -34384,6 +36989,11 @@
       <c r="Q522" t="n">
         <v>5</v>
       </c>
+      <c r="R522" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -34449,6 +37059,11 @@
       <c r="Q523" t="n">
         <v>3</v>
       </c>
+      <c r="R523" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -34514,6 +37129,11 @@
       <c r="Q524" t="n">
         <v>5</v>
       </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -34579,6 +37199,11 @@
       <c r="Q525" t="n">
         <v>2</v>
       </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -34644,6 +37269,11 @@
       <c r="Q526" t="n">
         <v>3</v>
       </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -34709,6 +37339,11 @@
       <c r="Q527" t="n">
         <v>3</v>
       </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -34774,6 +37409,11 @@
       <c r="Q528" t="n">
         <v>5</v>
       </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -34839,6 +37479,11 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -34904,6 +37549,11 @@
       <c r="Q530" t="n">
         <v>3</v>
       </c>
+      <c r="R530" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -34969,6 +37619,11 @@
       <c r="Q531" t="n">
         <v>37</v>
       </c>
+      <c r="R531" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -35034,6 +37689,11 @@
       <c r="Q532" t="n">
         <v>12</v>
       </c>
+      <c r="R532" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -35099,6 +37759,11 @@
       <c r="Q533" t="n">
         <v>5</v>
       </c>
+      <c r="R533" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -35164,6 +37829,11 @@
       <c r="Q534" t="n">
         <v>2</v>
       </c>
+      <c r="R534" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -35229,6 +37899,11 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -35294,6 +37969,11 @@
       <c r="Q536" t="n">
         <v>12</v>
       </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -35359,6 +38039,11 @@
       <c r="Q537" t="n">
         <v>5</v>
       </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -35424,6 +38109,11 @@
       <c r="Q538" t="n">
         <v>3</v>
       </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -35489,6 +38179,11 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -35554,6 +38249,11 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -35619,6 +38319,11 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -35684,6 +38389,11 @@
       <c r="Q542" t="n">
         <v>4</v>
       </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -35749,6 +38459,11 @@
       <c r="Q543" t="n">
         <v>4</v>
       </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -35814,6 +38529,11 @@
       <c r="Q544" t="n">
         <v>2</v>
       </c>
+      <c r="R544" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -35879,6 +38599,11 @@
       <c r="Q545" t="n">
         <v>16</v>
       </c>
+      <c r="R545" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -35944,6 +38669,11 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -36009,6 +38739,11 @@
       <c r="Q547" t="n">
         <v>1</v>
       </c>
+      <c r="R547" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -36074,6 +38809,11 @@
       <c r="Q548" t="n">
         <v>2</v>
       </c>
+      <c r="R548" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -36139,6 +38879,11 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -36204,6 +38949,11 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -36269,6 +39019,11 @@
       <c r="Q551" t="n">
         <v>13</v>
       </c>
+      <c r="R551" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -36334,6 +39089,11 @@
       <c r="Q552" t="n">
         <v>4</v>
       </c>
+      <c r="R552" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -36399,6 +39159,11 @@
       <c r="Q553" t="n">
         <v>2</v>
       </c>
+      <c r="R553" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -36464,6 +39229,11 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -36529,6 +39299,11 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -36594,6 +39369,11 @@
       <c r="Q556" t="n">
         <v>1</v>
       </c>
+      <c r="R556" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -36659,6 +39439,11 @@
       <c r="Q557" t="n">
         <v>7</v>
       </c>
+      <c r="R557" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -36724,6 +39509,11 @@
       <c r="Q558" t="n">
         <v>5</v>
       </c>
+      <c r="R558" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -36789,6 +39579,11 @@
       <c r="Q559" t="n">
         <v>5</v>
       </c>
+      <c r="R559" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -36854,6 +39649,11 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -36919,6 +39719,11 @@
       <c r="Q561" t="n">
         <v>2</v>
       </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -36984,6 +39789,11 @@
       <c r="Q562" t="n">
         <v>3</v>
       </c>
+      <c r="R562" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -37049,6 +39859,11 @@
       <c r="Q563" t="n">
         <v>1</v>
       </c>
+      <c r="R563" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -37114,6 +39929,11 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -37179,6 +39999,11 @@
       <c r="Q565" t="n">
         <v>7</v>
       </c>
+      <c r="R565" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -37244,6 +40069,11 @@
       <c r="Q566" t="n">
         <v>15</v>
       </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -37309,6 +40139,11 @@
       <c r="Q567" t="n">
         <v>7</v>
       </c>
+      <c r="R567" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -37374,6 +40209,11 @@
       <c r="Q568" t="n">
         <v>3</v>
       </c>
+      <c r="R568" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -37439,6 +40279,11 @@
       <c r="Q569" t="n">
         <v>1</v>
       </c>
+      <c r="R569" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -37504,6 +40349,11 @@
       <c r="Q570" t="n">
         <v>7</v>
       </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -37569,6 +40419,11 @@
       <c r="Q571" t="n">
         <v>1</v>
       </c>
+      <c r="R571" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -37634,6 +40489,11 @@
       <c r="Q572" t="n">
         <v>5</v>
       </c>
+      <c r="R572" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -37699,6 +40559,11 @@
       <c r="Q573" t="n">
         <v>0</v>
       </c>
+      <c r="R573" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -37764,6 +40629,11 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -37829,6 +40699,11 @@
       <c r="Q575" t="n">
         <v>5</v>
       </c>
+      <c r="R575" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -37894,6 +40769,11 @@
       <c r="Q576" t="n">
         <v>4</v>
       </c>
+      <c r="R576" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -37959,6 +40839,11 @@
       <c r="Q577" t="n">
         <v>31</v>
       </c>
+      <c r="R577" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -38024,6 +40909,11 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -38089,6 +40979,11 @@
       <c r="Q579" t="n">
         <v>10</v>
       </c>
+      <c r="R579" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -38154,6 +41049,11 @@
       <c r="Q580" t="n">
         <v>9</v>
       </c>
+      <c r="R580" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -38219,6 +41119,11 @@
       <c r="Q581" t="n">
         <v>6</v>
       </c>
+      <c r="R581" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -38284,6 +41189,11 @@
       <c r="Q582" t="n">
         <v>3</v>
       </c>
+      <c r="R582" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -38349,6 +41259,11 @@
       <c r="Q583" t="n">
         <v>5</v>
       </c>
+      <c r="R583" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -38414,6 +41329,11 @@
       <c r="Q584" t="n">
         <v>5</v>
       </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -38479,6 +41399,11 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -38544,6 +41469,11 @@
       <c r="Q586" t="n">
         <v>10</v>
       </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -38608,6 +41538,11 @@
       </c>
       <c r="Q587" t="n">
         <v>6</v>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
       </c>
     </row>
   </sheetData>
